--- a/Analyzed/try6/data_2019.xlsx
+++ b/Analyzed/try6/data_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>58.88107148273019</v>
       </c>
       <c r="N2">
-        <v>163.24</v>
+        <v>440.664</v>
       </c>
       <c r="O2">
-        <v>994.79</v>
+        <v>-105.21</v>
       </c>
       <c r="P2">
-        <v>594.7627391999999</v>
+        <v>511.2034999043873</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -589,10 +594,13 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC2">
         <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>61.94766842538549</v>
       </c>
       <c r="N3">
-        <v>199.808</v>
+        <v>495.9920000000001</v>
       </c>
       <c r="O3">
-        <v>1042.08</v>
+        <v>-107.92</v>
       </c>
       <c r="P3">
-        <v>528.7963176</v>
+        <v>433.0410905546087</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -662,13 +670,13 @@
         <v>5</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -684,6 +692,9 @@
       </c>
       <c r="AC3">
         <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>71.62074695801972</v>
       </c>
       <c r="N4">
-        <v>206.6120000000001</v>
+        <v>496.8320000000001</v>
       </c>
       <c r="O4">
-        <v>1106.06</v>
+        <v>-143.94</v>
       </c>
       <c r="P4">
-        <v>524.9005632000001</v>
+        <v>445.1349519275719</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -756,25 +767,28 @@
         <v>2</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>4</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
         <v>5</v>
       </c>
-      <c r="AB4">
-        <v>4</v>
-      </c>
       <c r="AC4">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>67.96818581975377</v>
       </c>
       <c r="N5">
-        <v>222.348</v>
+        <v>518.7280000000001</v>
       </c>
       <c r="O5">
-        <v>1234.24</v>
+        <v>-115.76</v>
       </c>
       <c r="P5">
-        <v>544.1662728</v>
+        <v>454.5336390511129</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -847,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>2</v>
@@ -856,16 +870,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>80.94135528714013</v>
       </c>
       <c r="N6">
-        <v>225.232</v>
+        <v>544.936</v>
       </c>
       <c r="O6">
-        <v>1292.88</v>
+        <v>-157.12</v>
       </c>
       <c r="P6">
-        <v>491.2105896</v>
+        <v>384.9487335164479</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -938,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <v>4</v>
@@ -950,13 +967,16 @@
         <v>4</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>3</v>
       </c>
       <c r="AC6">
         <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>59.73704653305886</v>
       </c>
       <c r="N7">
-        <v>121.828</v>
+        <v>496.272</v>
       </c>
       <c r="O7">
-        <v>1201.13</v>
+        <v>-148.87</v>
       </c>
       <c r="P7">
-        <v>533.2873032</v>
+        <v>435.2511885238513</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,27 +1046,30 @@
         <v>3</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
       <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
         <v>2</v>
       </c>
     </row>
@@ -1093,13 +1116,13 @@
         <v>85.64043795514759</v>
       </c>
       <c r="N8">
-        <v>87.38800000000002</v>
+        <v>355.152</v>
       </c>
       <c r="O8">
-        <v>1088.36</v>
+        <v>-161.64</v>
       </c>
       <c r="P8">
-        <v>494.75826</v>
+        <v>388.8153861136325</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,27 +1140,30 @@
         <v>6</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
         <v>3</v>
       </c>
     </row>
@@ -1184,13 +1210,13 @@
         <v>76.49043366674542</v>
       </c>
       <c r="N9">
-        <v>181.524</v>
+        <v>395.36</v>
       </c>
       <c r="O9">
-        <v>944.17</v>
+        <v>-105.83</v>
       </c>
       <c r="P9">
-        <v>487.6717968</v>
+        <v>366.0998630434827</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,27 +1234,30 @@
         <v>3</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X9">
         <v>2</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>1</v>
       </c>
     </row>
@@ -1275,13 +1304,13 @@
         <v>77.20241672092148</v>
       </c>
       <c r="N10">
-        <v>-6.103999999999997</v>
+        <v>364.728</v>
       </c>
       <c r="O10">
-        <v>1188.46</v>
+        <v>-211.54</v>
       </c>
       <c r="P10">
-        <v>505.166868</v>
+        <v>404.2934171349474</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1302,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1314,12 +1343,15 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
         <v>1</v>
       </c>
     </row>
@@ -1366,13 +1398,13 @@
         <v>80.58070865883788</v>
       </c>
       <c r="N11">
-        <v>-157.332</v>
+        <v>443.9120000000001</v>
       </c>
       <c r="O11">
-        <v>1280.16</v>
+        <v>-219.84</v>
       </c>
       <c r="P11">
-        <v>509.0207184</v>
+        <v>386.4719337815181</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1390,28 +1422,31 @@
         <v>7</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
